--- a/SpringBatch実行方法.xlsx
+++ b/SpringBatch実行方法.xlsx
@@ -4,26 +4,24 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SpringBatch" sheetId="3" r:id="rId1"/>
+    <sheet name="SpringBootBatch" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>１．コマンド</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>java org.springframework.batch.core.launch.support.CommandLineJobRunner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     classpath:/example/launch-context.xml job1 name=zw date=2017/04/01</t>
   </si>
   <si>
     <t>２．Eclipse</t>
@@ -44,6 +42,63 @@
     <t>参考：https://sites.google.com/site/soracane/home/springnitsuite/spring-batch/spring-batchno-kihon-gainen</t>
     <rPh sb="0" eb="2">
       <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     classpath:/example/launch-context.xml job1 name=zw date=2017/04/01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>longchampBatchをご参考</t>
+    <rPh sb="16" eb="18">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SpringBootBatchをご参考</t>
+    <rPh sb="17" eb="19">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> classpath:/example/launch-context.xml </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>job1 name=zw date=2017/04/01</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※launch-context.xmlの情報をJAVAに移すため</t>
+    <rPh sb="20" eb="22">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ウツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -52,7 +107,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +125,15 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -150,13 +214,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -211,13 +275,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -258,13 +322,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -589,47 +653,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A52"/>
+  <dimension ref="A1:A53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+    <row r="53" spans="1:1">
+      <c r="A53" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -638,4 +707,45 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SpringBatch実行方法.xlsx
+++ b/SpringBatch実行方法.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090"/>
   </bookViews>
   <sheets>
-    <sheet name="SpringBatch" sheetId="3" r:id="rId1"/>
-    <sheet name="SpringBootBatch" sheetId="4" r:id="rId2"/>
+    <sheet name="SpringBatch" sheetId="5" r:id="rId1"/>
+    <sheet name="SpringBatch実行方法" sheetId="3" r:id="rId2"/>
+    <sheet name="SpringBootBatch実行方法" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>１．コマンド</t>
     <phoneticPr fontId="1"/>
@@ -102,12 +103,715 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>・Spring Batchのイメージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・処理単位：step</t>
+    <rPh sb="1" eb="3">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ステップの種類</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１）taskletのみのステップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">２)チャンクによるステップ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reader:Processer=1:1</t>
+  </si>
+  <si>
+    <t>Processer:writer=1:n(n:コミット数)</t>
+  </si>
+  <si>
+    <r>
+      <t>・采用多种机制加速Job的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>执</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>行</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>批</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>处</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>理工作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>处</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>理的数据量大，而</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>执</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>行窗口一般又要求比</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>较</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>小。所以必</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>须</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>要通</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>多种方式来加速Job的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>执</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>行。一般我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>们</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>有四种方式来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>①在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>个step中多</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>执</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>行任</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>务</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>②并行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>执</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>行不同的Step</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>③并行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>执</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>行同一个Step</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>④</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>远</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>执</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>行Chunk任</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>务</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>public Step step() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return stepBuilders.get("step")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            .tasklet(tasklet)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            .throttleLimit(20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            .build();</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>public Job job() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return stepBuilders.get("parallelSteps")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            .start(step1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            .split(asyncTaskExecutor).add(flow1, flow2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            .next(step3)</t>
+  </si>
+  <si>
+    <t>Spring batch提供了PartitionStep来实现对同一个step在多个进程中实现并行处理。行运行。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>通</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PartitonStep再配合PartitionHandler可以将一个step</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>扩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>展到多个Slave上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>并行运行。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>远程执行Chunk任务则是将某个Step的processer操作分割到多个进程中，多个进程通过一些中间件进行通讯颈而Reader和Writer不是瓶颈</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>景。（比如采用消息的方式）。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>种方式适合于Processer是瓶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>颈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>而Reader和Writer不是瓶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>颈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>景。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,13 +845,48 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F5F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -164,11 +903,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -209,6 +957,200 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>95</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2049" name="Picture 1" descr="https://584bde64-a-62cb3a1a-s-sites.googlegroups.com/site/soracane/home/springnitsuite/spring-batch/1-spring-batchno-kihon/0batch-gaiyou.jpg?attachauth=ANoY7cqbIJLcpLcYDQHGA7cnlW3E3muSuDKJnU5UechNYlqSxnKegdGsHgCw2ktOj3xPzc7eEMQADjEPZVNuKCFBmahrV--ArawapShV3-4iAYvuMLjcDSm5BzoQrAkeqK6XLBcypUoMnj0ez-WVJz7_RNRzGa1v6NjznMvEs0XlfsNMNtycjo_RvNLZrNRQrmU0r91cjxjKErbXuWFND3sGnshfHCIrJENqkKW_xpCKwSMhu-QeLWsUTLMRsYWmAr_pD0rhrRaE-bj4fimOf8EFAcAKsCJ75cp4IMIWgHAFFRh4L_FUWrM%3D&amp;attredirects=0"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="47625" y="895350"/>
+          <a:ext cx="6343650" cy="4781550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2050" name="Picture 2" descr="https://584bde64-a-62cb3a1a-s-sites.googlegroups.com/site/soracane/home/springnitsuite/spring-batch/1-spring-batchno-kihon/tasklet-image.jpg?attachauth=ANoY7cpMT_189dKb6Z61ZSSpEjL3mKrKHrP3_j5bV8fMw458zBVgDtgklkVC_P_er_-9LZqzCov5dX_4zQKx_JA3p7rZrGUfsjuyiNfW3n8rbuDDLGYon-j-2jEqzKAprk6dpCgyjSmigacTPrG_RJfdlse-dZeeznI8e7M2yToixhfZXNtTs4jmyIE5cv2qD2_comtBwodcEPKKhwYeQ_7sfwK6bOSe5udfATWi3KRvmWAvnz2MX6F6P-x45hi2fSguzN9novgYhSynryBZxFtZo6fiWCagZcGIlyrnfPv1ueX_3RmIvuA%3D&amp;attredirects=0"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="123825" y="6238875"/>
+          <a:ext cx="4810125" cy="1657350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2051" name="Picture 3" descr="https://sites.google.com/site/soracane/_/rsrc/1293069446125/home/springnitsuite/spring-batch/1-spring-batchno-kihon/tasklet-chunk-image.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="200025" y="8429625"/>
+          <a:ext cx="5591175" cy="4010025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="角丸四角形吹き出し 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3800475" y="10734674"/>
+          <a:ext cx="1704975" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -126095"/>
+            <a:gd name="adj2" fmla="val 19571"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>コミット数まで</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>List</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>に溜める</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -653,6 +1595,174 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A4:G100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="AT93" sqref="AT93"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0.875" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7">
+      <c r="C74" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7">
+      <c r="C75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7">
+      <c r="B77" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7">
+      <c r="C78" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7">
+      <c r="C79" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7">
+      <c r="G80" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="3:7">
+      <c r="G81" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="3:7">
+      <c r="G82" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" spans="3:7">
+      <c r="G83" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="84" spans="3:7">
+      <c r="G84" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85" spans="3:7">
+      <c r="G85" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" spans="3:7">
+      <c r="C86" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="3:7">
+      <c r="G87" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="3:7">
+      <c r="G88" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="3:7">
+      <c r="G89" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="90" spans="3:7">
+      <c r="G90" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="91" spans="3:7">
+      <c r="G91" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="92" spans="3:7">
+      <c r="G92" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="93" spans="3:7">
+      <c r="G93" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="94" spans="3:7">
+      <c r="C94" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" spans="3:7">
+      <c r="F95" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="96" spans="3:7">
+      <c r="F96" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="98" spans="4:7">
+      <c r="D98" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" spans="4:7">
+      <c r="G99" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="100" spans="4:7">
+      <c r="F100" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -709,12 +1819,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/SpringBatch実行方法.xlsx
+++ b/SpringBatch実行方法.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>１．コマンド</t>
     <phoneticPr fontId="1"/>
@@ -587,224 +587,338 @@
     <t xml:space="preserve">            .tasklet(tasklet)</t>
   </si>
   <si>
+    <t xml:space="preserve">            .build();</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>public Job job() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return stepBuilders.get("parallelSteps")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            .start(step1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            .split(asyncTaskExecutor).add(flow1, flow2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            .next(step3)</t>
+  </si>
+  <si>
+    <t>Spring batch提供了PartitionStep来实现对同一个step在多个进程中实现并行处理。行运行。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>通</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PartitonStep再配合PartitionHandler可以将一个step</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>扩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>展到多个Slave上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>并行运行。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>远程执行Chunk任务则是将某个Step的processer操作分割到多个进程中，多个进程通过一些中间件进行通讯颈而Reader和Writer不是瓶颈</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>景。（比如采用消息的方式）。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>种方式适合于Processer是瓶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>颈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>而Reader和Writer不是瓶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>颈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>景。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t xml:space="preserve">            .throttleLimit(20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            .build();</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>public Job job() {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    return stepBuilders.get("parallelSteps")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            .start(step1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            .split(asyncTaskExecutor).add(flow1, flow2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            .next(step3)</t>
-  </si>
-  <si>
-    <t>Spring batch提供了PartitionStep来实现对同一个step在多个进程中实现并行处理。行运行。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>通</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>过</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PartitonStep再配合PartitionHandler可以将一个step</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>扩</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>展到多个Slave上</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>实现</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>并行运行。</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>远程执行Chunk任务则是将某个Step的processer操作分割到多个进程中，多个进程通过一些中间件进行通讯颈而Reader和Writer不是瓶颈</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>场</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>景。（比如采用消息的方式）。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>这</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>种方式适合于Processer是瓶</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>颈</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>而Reader和Writer不是瓶</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>颈</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>场</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>景。</t>
-    </r>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.&lt;File, ImageDto&gt;chunk(10)</t>
+  </si>
+  <si>
+    <t>.reader(imageFileItemReader)</t>
+  </si>
+  <si>
+    <t>.processor(imageItemProcessor)</t>
+  </si>
+  <si>
+    <t>.writer(imageFileItemWriter)</t>
+  </si>
+  <si>
+    <t>.taskExecutor(taskExecutor)</t>
+  </si>
+  <si>
+    <t>.throttleLimit(10)</t>
+  </si>
+  <si>
+    <t>.build();</t>
+  </si>
+  <si>
+    <t>steps.get("stepUploadImage")</t>
+  </si>
+  <si>
+    <r>
+      <t>//在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>单</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>个step中多</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>线</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>程</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>执</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>行任</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>务</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1595,10 +1709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:G100"/>
+  <dimension ref="A4:BK100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="AT93" sqref="AT93"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="CD88" sqref="CD88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0.875" defaultRowHeight="13.5"/>
@@ -1628,114 +1742,196 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="2:7">
+    <row r="74" spans="2:63">
       <c r="C74" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="2:7">
+    <row r="75" spans="2:63">
       <c r="C75" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="2:7">
+    <row r="77" spans="2:63">
       <c r="B77" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="2:7">
+    <row r="78" spans="2:63">
       <c r="C78" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="2:7">
+    <row r="79" spans="2:63">
       <c r="C79" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="2:7">
+    <row r="80" spans="2:63">
       <c r="G80" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="81" spans="3:7">
+      <c r="BD80" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BE80" s="1"/>
+      <c r="BF80" s="1"/>
+      <c r="BG80" s="1"/>
+      <c r="BH80" s="1"/>
+      <c r="BI80" s="1"/>
+      <c r="BJ80" s="1"/>
+      <c r="BK80" s="1"/>
+    </row>
+    <row r="81" spans="3:63">
       <c r="G81" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="82" spans="3:7">
+      <c r="BD81" s="1"/>
+      <c r="BE81" s="1"/>
+      <c r="BF81" s="1"/>
+      <c r="BG81" s="1"/>
+      <c r="BH81" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BI81" s="1"/>
+      <c r="BJ81" s="1"/>
+      <c r="BK81" s="1"/>
+    </row>
+    <row r="82" spans="3:63">
       <c r="G82" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="83" spans="3:7">
+      <c r="BD82" s="1"/>
+      <c r="BE82" s="1"/>
+      <c r="BF82" s="1"/>
+      <c r="BG82" s="1"/>
+      <c r="BH82" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BI82" s="1"/>
+      <c r="BJ82" s="1"/>
+      <c r="BK82" s="1"/>
+    </row>
+    <row r="83" spans="3:63">
       <c r="G83" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="BD83" s="1"/>
+      <c r="BE83" s="1"/>
+      <c r="BF83" s="1"/>
+      <c r="BG83" s="1"/>
+      <c r="BH83" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BI83" s="1"/>
+      <c r="BJ83" s="1"/>
+      <c r="BK83" s="1"/>
+    </row>
+    <row r="84" spans="3:63">
+      <c r="G84" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="84" spans="3:7">
-      <c r="G84" s="2" t="s">
+      <c r="BD84" s="1"/>
+      <c r="BE84" s="1"/>
+      <c r="BF84" s="1"/>
+      <c r="BG84" s="1"/>
+      <c r="BH84" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI84" s="1"/>
+      <c r="BJ84" s="1"/>
+      <c r="BK84" s="1"/>
+    </row>
+    <row r="85" spans="3:63">
+      <c r="G85" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="85" spans="3:7">
-      <c r="G85" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="86" spans="3:7">
+      <c r="BD85" s="1"/>
+      <c r="BE85" s="1"/>
+      <c r="BF85" s="1"/>
+      <c r="BG85" s="1"/>
+      <c r="BH85" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI85" s="1"/>
+      <c r="BJ85" s="1"/>
+      <c r="BK85" s="1"/>
+    </row>
+    <row r="86" spans="3:63">
       <c r="C86" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="87" spans="3:7">
+      <c r="BD86" s="1"/>
+      <c r="BE86" s="1"/>
+      <c r="BF86" s="1"/>
+      <c r="BG86" s="1"/>
+      <c r="BH86" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="BI86" s="1"/>
+      <c r="BJ86" s="1"/>
+      <c r="BK86" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="87" spans="3:63">
       <c r="G87" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="BD87" s="1"/>
+      <c r="BE87" s="1"/>
+      <c r="BF87" s="1"/>
+      <c r="BG87" s="1"/>
+      <c r="BH87" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BI87" s="1"/>
+      <c r="BJ87" s="1"/>
+      <c r="BK87" s="1"/>
+    </row>
+    <row r="88" spans="3:63">
+      <c r="G88" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="88" spans="3:7">
-      <c r="G88" s="2" t="s">
+    <row r="89" spans="3:63">
+      <c r="G89" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="3:7">
-      <c r="G89" s="2" t="s">
+    <row r="90" spans="3:63">
+      <c r="G90" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="90" spans="3:7">
-      <c r="G90" s="2" t="s">
+    <row r="91" spans="3:63">
+      <c r="G91" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="91" spans="3:7">
-      <c r="G91" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="92" spans="3:7">
+    <row r="92" spans="3:63">
       <c r="G92" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93" spans="3:63">
+      <c r="G93" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="93" spans="3:7">
-      <c r="G93" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="94" spans="3:7">
+    <row r="94" spans="3:63">
       <c r="C94" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="95" spans="3:7">
+    <row r="95" spans="3:63">
       <c r="F95" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="96" spans="3:63">
+      <c r="F96" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="96" spans="3:7">
-      <c r="F96" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="98" spans="4:7">
@@ -1745,12 +1941,12 @@
     </row>
     <row r="99" spans="4:7">
       <c r="G99" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="100" spans="4:7">
       <c r="F100" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
